--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.816687356836673</v>
+        <v>2.755054494355548</v>
       </c>
       <c r="I2" t="n">
         <v>196</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>212.7501499796073</v>
+        <v>219.1590686518982</v>
       </c>
       <c r="O2" t="n">
-        <v>276.5751949734895</v>
+        <v>284.9067892474676</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.35232719393164</v>
+        <v>12.91117265129122</v>
       </c>
       <c r="R2" t="n">
-        <v>11.85228769630629</v>
+        <v>17.46399153645928</v>
       </c>
       <c r="S2" t="n">
-        <v>39.51074213906993</v>
+        <v>28.49067892474676</v>
       </c>
       <c r="T2" t="n">
-        <v>42.18594863806946</v>
+        <v>28.63033911555435</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>28</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>219.1590686518982</v>
+        <v>2133.760309882097</v>
       </c>
       <c r="O2" t="n">
-        <v>284.9067892474676</v>
+        <v>2773.888402846726</v>
       </c>
       <c r="P2" t="n">
         <v>17</v>
@@ -590,13 +590,13 @@
         <v>12.91117265129122</v>
       </c>
       <c r="R2" t="n">
-        <v>17.46399153645928</v>
+        <v>1.076238629713719</v>
       </c>
       <c r="S2" t="n">
-        <v>28.49067892474676</v>
+        <v>462.3147338077877</v>
       </c>
       <c r="T2" t="n">
-        <v>28.63033911555435</v>
+        <v>464.5809825029239</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.755054494355548</v>
+        <v>2.816687356836673</v>
       </c>
       <c r="I2" t="n">
         <v>196</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>2133.760309882097</v>
+        <v>2015.720979756168</v>
       </c>
       <c r="O2" t="n">
-        <v>2773.888402846726</v>
+        <v>2620.437273683018</v>
       </c>
       <c r="P2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.91117265129122</v>
+        <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>1.076238629713719</v>
+        <v>1.072247035172061</v>
       </c>
       <c r="S2" t="n">
-        <v>462.3147338077877</v>
+        <v>436.7395456138364</v>
       </c>
       <c r="T2" t="n">
-        <v>464.5809825029239</v>
+        <v>466.3104523481066</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -590,13 +590,13 @@
         <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>1.072247035172061</v>
+        <v>14.29662713562748</v>
       </c>
       <c r="S2" t="n">
-        <v>436.7395456138364</v>
+        <v>32.75546592103773</v>
       </c>
       <c r="T2" t="n">
-        <v>466.3104523481066</v>
+        <v>34.97328392610799</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -551,10 +551,10 @@
         <v>28</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>28</v>
-      </c>
-      <c r="F2" t="n">
-        <v>56</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -563,10 +563,10 @@
         <v>2.816687356836673</v>
       </c>
       <c r="I2" t="n">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="J2" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>98</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>2015.720979756168</v>
+        <v>1996.120979756168</v>
       </c>
       <c r="O2" t="n">
-        <v>2620.437273683018</v>
+        <v>2594.957273683018</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
@@ -590,13 +590,13 @@
         <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>14.29662713562748</v>
+        <v>1.082775476134562</v>
       </c>
       <c r="S2" t="n">
-        <v>32.75546592103773</v>
+        <v>432.4928789471697</v>
       </c>
       <c r="T2" t="n">
-        <v>34.97328392610799</v>
+        <v>461.7762509592176</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -542,34 +542,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.816687356836673</v>
+        <v>2.701442693520433</v>
       </c>
       <c r="I2" t="n">
-        <v>98</v>
+        <v>87.5</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>98</v>
+        <v>87.5</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>1996.120979756168</v>
+        <v>1741.50553528897</v>
       </c>
       <c r="O2" t="n">
-        <v>2594.957273683018</v>
+        <v>2263.957195875661</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.35232719393164</v>
+        <v>11.98992688333819</v>
       </c>
       <c r="R2" t="n">
-        <v>1.082775476134562</v>
+        <v>1.843636024162489</v>
       </c>
       <c r="S2" t="n">
-        <v>432.4928789471697</v>
+        <v>282.9946494844576</v>
       </c>
       <c r="T2" t="n">
-        <v>461.7762509592176</v>
+        <v>271.2032057559385</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -542,34 +542,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.701442693520433</v>
+        <v>3.153596547503946</v>
       </c>
       <c r="I2" t="n">
-        <v>87.5</v>
+        <v>147</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>87.5</v>
+        <v>147</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>1741.50553528897</v>
+        <v>3601.495385206561</v>
       </c>
       <c r="O2" t="n">
-        <v>2263.957195875661</v>
+        <v>4681.944000768529</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.98992688333819</v>
+        <v>14.78104270645019</v>
       </c>
       <c r="R2" t="n">
-        <v>1.843636024162489</v>
+        <v>0.7612983912363079</v>
       </c>
       <c r="S2" t="n">
-        <v>282.9946494844576</v>
+        <v>468.1944000768529</v>
       </c>
       <c r="T2" t="n">
-        <v>271.2032057559385</v>
+        <v>656.7727001078075</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -542,34 +542,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>3.153596547503946</v>
+        <v>3.983397461003249</v>
       </c>
       <c r="I2" t="n">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>3601.495385206561</v>
+        <v>212.7501499796073</v>
       </c>
       <c r="O2" t="n">
-        <v>4681.944000768529</v>
+        <v>276.5751949734895</v>
       </c>
       <c r="P2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.78104270645019</v>
+        <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7612983912363079</v>
+        <v>10.15910373969111</v>
       </c>
       <c r="S2" t="n">
-        <v>468.1944000768529</v>
+        <v>46.09586582891492</v>
       </c>
       <c r="T2" t="n">
-        <v>656.7727001078075</v>
+        <v>49.21694007774771</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -551,10 +551,10 @@
         <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -563,10 +563,10 @@
         <v>3.983397461003249</v>
       </c>
       <c r="I2" t="n">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
         <v>196</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>212.7501499796073</v>
+        <v>215.1920278197244</v>
       </c>
       <c r="O2" t="n">
-        <v>276.5751949734895</v>
+        <v>279.7496361656417</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
@@ -590,13 +590,13 @@
         <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>10.15910373969111</v>
+        <v>10.04382395656557</v>
       </c>
       <c r="S2" t="n">
-        <v>46.09586582891492</v>
+        <v>46.62493936094029</v>
       </c>
       <c r="T2" t="n">
-        <v>49.21694007774771</v>
+        <v>49.78183629683728</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -545,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>28</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>215.1920278197244</v>
+        <v>3683.54728244758</v>
       </c>
       <c r="O2" t="n">
-        <v>279.7496361656417</v>
+        <v>4788.611467181854</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
@@ -590,13 +590,13 @@
         <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>10.04382395656557</v>
+        <v>0.5867580021509963</v>
       </c>
       <c r="S2" t="n">
-        <v>46.62493936094029</v>
+        <v>798.1019111969757</v>
       </c>
       <c r="T2" t="n">
-        <v>49.78183629683728</v>
+        <v>852.1400614342708</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -545,31 +545,31 @@
         <v>6</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>3.983397461003249</v>
+        <v>4.480096137802499</v>
       </c>
       <c r="I2" t="n">
-        <v>203</v>
+        <v>294</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>3683.54728244758</v>
+        <v>264.4560283974159</v>
       </c>
       <c r="O2" t="n">
-        <v>4788.611467181854</v>
+        <v>343.7928369166407</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.35232719393164</v>
+        <v>14.64780882890097</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5867580021509963</v>
+        <v>2.806411353000224</v>
       </c>
       <c r="S2" t="n">
-        <v>798.1019111969757</v>
+        <v>57.29880615277344</v>
       </c>
       <c r="T2" t="n">
-        <v>852.1400614342708</v>
+        <v>178.1634753812799</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -548,28 +548,28 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>4.480096137802499</v>
+        <v>2.816687356836673</v>
       </c>
       <c r="I2" t="n">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>264.4560283974159</v>
+        <v>174.1269800853441</v>
       </c>
       <c r="O2" t="n">
-        <v>343.7928369166407</v>
+        <v>226.3650741109473</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.64780882890097</v>
+        <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>2.806411353000224</v>
+        <v>12.41249829990929</v>
       </c>
       <c r="S2" t="n">
-        <v>57.29880615277344</v>
+        <v>37.72751235182456</v>
       </c>
       <c r="T2" t="n">
-        <v>178.1634753812799</v>
+        <v>40.28197933397935</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -545,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>28</v>
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
         <v>2.816687356836673</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>174.1269800853441</v>
+        <v>2080.070979756168</v>
       </c>
       <c r="O2" t="n">
-        <v>226.3650741109473</v>
+        <v>2704.092273683018</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
@@ -590,13 +590,13 @@
         <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>12.41249829990929</v>
+        <v>1.039075524495339</v>
       </c>
       <c r="S2" t="n">
-        <v>37.72751235182456</v>
+        <v>450.6820456138364</v>
       </c>
       <c r="T2" t="n">
-        <v>40.28197933397935</v>
+        <v>481.1969757856064</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -545,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>28</v>
@@ -557,7 +557,7 @@
         <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>2.816687356836673</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>2080.070979756168</v>
+        <v>174.1269800853441</v>
       </c>
       <c r="O2" t="n">
-        <v>2704.092273683018</v>
+        <v>226.3650741109473</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
@@ -590,13 +590,13 @@
         <v>12.35232719393164</v>
       </c>
       <c r="R2" t="n">
-        <v>1.039075524495339</v>
+        <v>12.41249829990929</v>
       </c>
       <c r="S2" t="n">
-        <v>450.6820456138364</v>
+        <v>37.72751235182456</v>
       </c>
       <c r="T2" t="n">
-        <v>481.1969757856064</v>
+        <v>40.28197933397935</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -545,31 +545,31 @@
         <v>6</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E2" t="n">
         <v>28</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.816687356836673</v>
+        <v>2.854232092675572</v>
       </c>
       <c r="I2" t="n">
+        <v>199.5</v>
+      </c>
+      <c r="J2" t="n">
         <v>98</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>98</v>
+        <v>101.5</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>174.1269800853441</v>
+        <v>200.3275287968095</v>
       </c>
       <c r="O2" t="n">
-        <v>226.3650741109473</v>
+        <v>260.4257874358523</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.35232719393164</v>
+        <v>12.45912296953718</v>
       </c>
       <c r="R2" t="n">
-        <v>12.41249829990929</v>
+        <v>10.43284214987625</v>
       </c>
       <c r="S2" t="n">
-        <v>37.72751235182456</v>
+        <v>43.40429790597539</v>
       </c>
       <c r="T2" t="n">
-        <v>40.28197933397935</v>
+        <v>47.92557893784782</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -548,28 +548,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.854232092675572</v>
+        <v>2.541435334301307</v>
       </c>
       <c r="I2" t="n">
-        <v>199.5</v>
+        <v>150.5</v>
       </c>
       <c r="J2" t="n">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="K2" t="n">
-        <v>101.5</v>
+        <v>73.5</v>
       </c>
       <c r="L2" t="n">
         <v>3.95</v>
@@ -578,25 +578,25 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>200.3275287968095</v>
+        <v>176.4081086432069</v>
       </c>
       <c r="O2" t="n">
-        <v>260.4257874358523</v>
+        <v>229.330541236169</v>
       </c>
       <c r="P2" t="n">
         <v>16</v>
       </c>
       <c r="Q2" t="n">
-        <v>12.45912296953718</v>
+        <v>11.3796580381806</v>
       </c>
       <c r="R2" t="n">
-        <v>10.43284214987625</v>
+        <v>16.10037491040185</v>
       </c>
       <c r="S2" t="n">
-        <v>43.40429790597539</v>
+        <v>38.22175687269483</v>
       </c>
       <c r="T2" t="n">
-        <v>47.92557893784782</v>
+        <v>31.05517745906455</v>
       </c>
     </row>
   </sheetData>

--- a/Cálculo Grupo B.xlsx
+++ b/Cálculo Grupo B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,25 +511,30 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Capacidad Nominal</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Personas por viaje</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Paradas Probables</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>C (&gt;12)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>I (&lt;40)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Tiempo de llenado</t>
         </is>
@@ -548,55 +553,58 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>2.541435334301307</v>
+        <v>2.582129345047005</v>
       </c>
       <c r="I2" t="n">
-        <v>150.5</v>
+        <v>154</v>
       </c>
       <c r="J2" t="n">
         <v>77</v>
       </c>
       <c r="K2" t="n">
-        <v>73.5</v>
+        <v>77</v>
       </c>
       <c r="L2" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>176.4081086432069</v>
+        <v>172.304982941572</v>
       </c>
       <c r="O2" t="n">
-        <v>229.330541236169</v>
+        <v>223.9964778240436</v>
       </c>
       <c r="P2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="n">
         <v>16</v>
       </c>
-      <c r="Q2" t="n">
-        <v>11.3796580381806</v>
-      </c>
       <c r="R2" t="n">
-        <v>16.10037491040185</v>
+        <v>11.54874357542757</v>
       </c>
       <c r="S2" t="n">
-        <v>38.22175687269483</v>
+        <v>15.77588346752582</v>
       </c>
       <c r="T2" t="n">
-        <v>31.05517745906455</v>
+        <v>37.33274630400727</v>
+      </c>
+      <c r="U2" t="n">
+        <v>31.69394608100617</v>
       </c>
     </row>
   </sheetData>
